--- a/doc/stress-test-results.xlsx
+++ b/doc/stress-test-results.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brooks\Desktop\Ahuja Summer\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="4" r:id="rId1"/>
+    <sheet name="Iterative" sheetId="1" r:id="rId2"/>
+    <sheet name="Distributive" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>Number of Threads</t>
   </si>
@@ -35,6 +39,18 @@
   <si>
     <t>Light Load</t>
   </si>
+  <si>
+    <t>Distributive</t>
+  </si>
+  <si>
+    <t>Iterative</t>
+  </si>
+  <si>
+    <t>Distributive Vs Iterative</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
 </sst>
 </file>
 
@@ -43,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,8 +75,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,8 +119,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -230,11 +282,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -244,6 +369,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,6 +444,834 @@
     <c:title>
       <c:tx>
         <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Distributive Light</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.986800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.778666666600003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.754000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.50936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.89133333333999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166.90091428571401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199.56164999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225.13475555555499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.87332000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Distributive Heavy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$13:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.919199999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.572400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.62306666666601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160.10290000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202.05176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246.36713333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291.31377142857099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.09415000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383.26377777777702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>433.52784000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Iterative Light</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.648399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.7928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.684533333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.391400000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.20456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.077466666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145.20777142857099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>165.66495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186.62217777777701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207.53412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Iterative Heavy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$D$13:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.135999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.139600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.2068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213.01339999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270.92432000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>328.96493333333302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>390.78320000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>454.10520000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>517.79453333333004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>585.43052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196612064"/>
+        <c:axId val="176425312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196612064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176425312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176425312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Response Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (msec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196612064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
@@ -313,6 +1290,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
+              <a:t>Iterative</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
               <a:t>Light Load</a:t>
             </a:r>
           </a:p>
@@ -327,6 +1313,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -335,10 +1341,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0851076727344832"/>
-          <c:y val="0.118020924467775"/>
-          <c:w val="0.890196850393701"/>
-          <c:h val="0.614984324876057"/>
+          <c:x val="8.5107720909886247E-2"/>
+          <c:y val="0.1911204356034443"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.61498432487605714"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -432,84 +1438,84 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
+              <c:f>Iterative!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:f>Iterative!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.22</c:v>
+                  <c:v>5.1340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.382</c:v>
+                  <c:v>21.648399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.005</c:v>
+                  <c:v>41.7928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.166</c:v>
+                  <c:v>62.684533333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.348</c:v>
+                  <c:v>83.391400000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.4308</c:v>
+                  <c:v>104.20456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131.68566666</c:v>
+                  <c:v>125.077466666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.452857142857</c:v>
+                  <c:v>145.20777142857099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175.07625</c:v>
+                  <c:v>165.66495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>197.109333333333</c:v>
+                  <c:v>186.62217777777701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>218.1592</c:v>
+                  <c:v>207.53412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,11 +1531,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378016120"/>
-        <c:axId val="378022888"/>
+        <c:axId val="197485944"/>
+        <c:axId val="198636376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378016120"/>
+        <c:axId val="197485944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,23 +1581,20 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42279290609507136"/>
+              <c:y val="0.87188735910935122"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -600,6 +1603,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -638,15 +1661,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378022888"/>
+        <c:crossAx val="198636376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378022888"/>
+        <c:axId val="198636376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000.0"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -704,6 +1727,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -742,7 +1785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378016120"/>
+        <c:crossAx val="197485944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -791,7 +1834,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -826,6 +1869,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
+              <a:t>Iterative</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
               <a:t>Heavy Load </a:t>
             </a:r>
           </a:p>
@@ -840,6 +1892,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -848,10 +1920,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0851076727344832"/>
-          <c:y val="0.118020924467775"/>
-          <c:w val="0.890196850393701"/>
-          <c:h val="0.614984324876057"/>
+          <c:x val="8.5107720909886247E-2"/>
+          <c:y val="0.19518151422592644"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.61498432487605714"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -945,84 +2017,84 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$26</c:f>
+              <c:f>Iterative!$A$16:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:f>Iterative!$B$16:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.8</c:v>
+                  <c:v>10.135999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.056</c:v>
+                  <c:v>50.139600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160.344</c:v>
+                  <c:v>102.2068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242.682666666666</c:v>
+                  <c:v>156.672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>330.0735</c:v>
+                  <c:v>213.01339999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>417.3184</c:v>
+                  <c:v>270.92432000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>504.954</c:v>
+                  <c:v>328.96493333333302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>589.830571485714</c:v>
+                  <c:v>390.78320000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>680.673</c:v>
+                  <c:v>454.10520000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>774.456</c:v>
+                  <c:v>517.79453333333004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>879.2858</c:v>
+                  <c:v>585.43052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,11 +2110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378089304"/>
-        <c:axId val="378102504"/>
+        <c:axId val="199563712"/>
+        <c:axId val="199564096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378089304"/>
+        <c:axId val="199563712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,23 +2160,20 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43205216535433072"/>
+              <c:y val="0.88000951635431535"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1113,6 +2182,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1151,12 +2240,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378102504"/>
+        <c:crossAx val="199564096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378102504"/>
+        <c:axId val="199564096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,6 +2300,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1249,7 +2358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378089304"/>
+        <c:crossAx val="199563712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1298,7 +2407,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1333,13 +2442,22 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
+              <a:t>Iterative</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
               <a:t>Light Load vs Heavy</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
               <a:t> Load</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1352,12 +2470,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1394,8 +2532,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.012842010093525"/>
-                  <c:y val="0.024579717903534"/>
+                  <c:x val="-1.2842010093524954E-2"/>
+                  <c:y val="2.4579717903534012E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1415,8 +2553,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0235204125003003"/>
-                  <c:y val="0.0321340144096718"/>
+                  <c:x val="-2.3520412500300292E-2"/>
+                  <c:y val="3.2134014409671743E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1492,89 +2630,89 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
+              <c:f>Iterative!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:f>Iterative!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.22</c:v>
+                  <c:v>5.1340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.382</c:v>
+                  <c:v>21.648399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.005</c:v>
+                  <c:v>41.7928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.166</c:v>
+                  <c:v>62.684533333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.348</c:v>
+                  <c:v>83.391400000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.4308</c:v>
+                  <c:v>104.20456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131.68566666</c:v>
+                  <c:v>125.077466666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.452857142857</c:v>
+                  <c:v>145.20777142857099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175.07625</c:v>
+                  <c:v>165.66495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>197.109333333333</c:v>
+                  <c:v>186.62217777777701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>218.1592</c:v>
+                  <c:v>207.53412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1611,8 +2749,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0249872260177145"/>
-                  <c:y val="-0.0509632471578447"/>
+                  <c:x val="-2.4987226017714487E-2"/>
+                  <c:y val="-5.0963247157844643E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1688,89 +2826,89 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$26</c:f>
+              <c:f>Iterative!$A$16:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:f>Iterative!$B$16:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.8</c:v>
+                  <c:v>10.135999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.056</c:v>
+                  <c:v>50.139600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160.344</c:v>
+                  <c:v>102.2068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242.682666666666</c:v>
+                  <c:v>156.672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>330.0735</c:v>
+                  <c:v>213.01339999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>417.3184</c:v>
+                  <c:v>270.92432000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>504.954</c:v>
+                  <c:v>328.96493333333302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>589.830571485714</c:v>
+                  <c:v>390.78320000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>680.673</c:v>
+                  <c:v>454.10520000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>774.456</c:v>
+                  <c:v>517.79453333333004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>879.2858</c:v>
+                  <c:v>585.43052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1781,16 +2919,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378159304"/>
-        <c:axId val="378166056"/>
+        <c:axId val="198679984"/>
+        <c:axId val="179734424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378159304"/>
+        <c:axId val="198679984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1831,6 +2983,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1869,12 +3041,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378166056"/>
+        <c:crossAx val="179734424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378166056"/>
+        <c:axId val="179734424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,6 +3105,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1965,7 +3157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378159304"/>
+        <c:crossAx val="198679984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2043,6 +3235,2058 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Distributive</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Light Load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs Heavy Load</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributive!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Light Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.987927307606498E-2"/>
+                  <c:y val="1.6746422366104637E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9666921024102434E-2"/>
+                  <c:y val="2.5868428115601909E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9666921024102462E-2"/>
+                  <c:y val="2.2827759532436043E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.278400635787232E-2"/>
+                  <c:y val="2.8909096698767445E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1661855637715161E-2"/>
+                  <c:y val="3.499043386509907E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Distributive!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Distributive!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.986800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.778666666600003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.754000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.50936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.89133333333999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166.90091428571401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199.56164999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225.13475555555499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.87332000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributive!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heavy Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9666921024102434E-2"/>
+                  <c:y val="-4.1026280714044863E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9454568972139885E-2"/>
+                  <c:y val="-4.1026280714044752E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Distributive!$A$16:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Distributive!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.919199999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.572400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.62306666666601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160.10290000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202.05176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246.36713333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291.31377142857099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.09415000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383.26377777777702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>433.52784000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="179733640"/>
+        <c:axId val="179733248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179733640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179733248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179733248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Response Time (msec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179733640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Distributive</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Light Load</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Distributive!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Distributive!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.986800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.778666666600003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.754000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.50936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.89133333333999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166.90091428571401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199.56164999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225.13475555555499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.87332000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="179729720"/>
+        <c:axId val="179730112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179729720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179730112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179730112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Response Time (msec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179729720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Distributive</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heavy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Load</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Distributive!$A$16:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Distributive!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.919199999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.572400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.62306666666601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160.10290000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202.05176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246.36713333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291.31377142857099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.09415000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383.26377777777702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>433.52784000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199355192"/>
+        <c:axId val="199355584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199355192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199355584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199355584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Response Time (msec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199355192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2084,6 +5328,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -2120,7 +5404,127 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3193,7 +6597,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3220,8 +6624,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3301,11 +6705,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3316,11 +6715,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3332,7 +6726,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3352,6 +6746,532 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
@@ -3689,6 +7609,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3712,8 +9180,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>117729</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11619</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3721,7 +9224,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>184023</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3748,10 +9251,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>60198</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3777,13 +9280,108 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108204</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>187832</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>188785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3848,7 +9446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3883,7 +9481,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4060,7 +9658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4068,25 +9666,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <f>Distributive!$B$3</f>
+        <v>5.3659999999999997</v>
+      </c>
+      <c r="D2" s="10">
+        <f>Iterative!B3</f>
+        <v>5.1340000000000003</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <f>Distributive!$B$4</f>
+        <v>16.739999999999998</v>
+      </c>
+      <c r="D3" s="10">
+        <f>Iterative!B4</f>
+        <v>21.648399999999999</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="9">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <f>Distributive!B5</f>
+        <v>33.986800000000002</v>
+      </c>
+      <c r="D4" s="10">
+        <f>Iterative!B5</f>
+        <v>41.7928</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="9">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <f>Distributive!B6</f>
+        <v>57.778666666600003</v>
+      </c>
+      <c r="D5" s="10">
+        <f>Iterative!B6</f>
+        <v>62.684533333333</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="9">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10">
+        <f>Distributive!B7</f>
+        <v>84.754000000000005</v>
+      </c>
+      <c r="D6" s="10">
+        <f>Iterative!B7</f>
+        <v>83.391400000000004</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="9">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10">
+        <f>Distributive!B8</f>
+        <v>110.50936</v>
+      </c>
+      <c r="D7" s="10">
+        <f>Iterative!B8</f>
+        <v>104.20456</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="9">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10">
+        <f>Distributive!B9</f>
+        <v>135.89133333333999</v>
+      </c>
+      <c r="D8" s="10">
+        <f>Iterative!B9</f>
+        <v>125.077466666666</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="9">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10">
+        <f>Distributive!B10</f>
+        <v>166.90091428571401</v>
+      </c>
+      <c r="D9" s="10">
+        <f>Iterative!B10</f>
+        <v>145.20777142857099</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="9">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10">
+        <f>Distributive!B11</f>
+        <v>199.56164999999999</v>
+      </c>
+      <c r="D10" s="10">
+        <f>Iterative!B11</f>
+        <v>165.66495</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="9">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10">
+        <f>Distributive!B12</f>
+        <v>225.13475555555499</v>
+      </c>
+      <c r="D11" s="10">
+        <f>Iterative!B12</f>
+        <v>186.62217777777701</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="11">
+        <v>50</v>
+      </c>
+      <c r="C12" s="12">
+        <f>Distributive!B13</f>
+        <v>251.87332000000001</v>
+      </c>
+      <c r="D12" s="12">
+        <f>Iterative!B13</f>
+        <v>207.53412</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <f>Distributive!B16</f>
+        <v>13.028</v>
+      </c>
+      <c r="D13" s="10">
+        <f>Iterative!B16</f>
+        <v>10.135999999999999</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="9">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
+        <f>Distributive!B17</f>
+        <v>38.919199999999996</v>
+      </c>
+      <c r="D14" s="10">
+        <f>Iterative!B17</f>
+        <v>50.139600000000002</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10">
+        <f>Distributive!B18</f>
+        <v>78.572400000000002</v>
+      </c>
+      <c r="D15" s="10">
+        <f>Iterative!B18</f>
+        <v>102.2068</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10">
+        <f>Distributive!B19</f>
+        <v>118.62306666666601</v>
+      </c>
+      <c r="D16" s="10">
+        <f>Iterative!B19</f>
+        <v>156.672</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="9">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10">
+        <f>Distributive!B20</f>
+        <v>160.10290000000001</v>
+      </c>
+      <c r="D17" s="10">
+        <f>Iterative!B20</f>
+        <v>213.01339999999999</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="9">
+        <v>25</v>
+      </c>
+      <c r="C18" s="10">
+        <f>Distributive!B21</f>
+        <v>202.05176</v>
+      </c>
+      <c r="D18" s="10">
+        <f>Iterative!B21</f>
+        <v>270.92432000000002</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="9">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10">
+        <f>Distributive!B22</f>
+        <v>246.36713333333299</v>
+      </c>
+      <c r="D19" s="10">
+        <f>Iterative!B22</f>
+        <v>328.96493333333302</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="9">
+        <v>35</v>
+      </c>
+      <c r="C20" s="10">
+        <f>Distributive!B23</f>
+        <v>291.31377142857099</v>
+      </c>
+      <c r="D20" s="10">
+        <f>Iterative!B23</f>
+        <v>390.78320000000002</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="9">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10">
+        <f>Distributive!B24</f>
+        <v>336.09415000000001</v>
+      </c>
+      <c r="D21" s="10">
+        <f>Iterative!B24</f>
+        <v>454.10520000000002</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="9">
+        <v>45</v>
+      </c>
+      <c r="C22" s="10">
+        <f>Distributive!B25</f>
+        <v>383.26377777777702</v>
+      </c>
+      <c r="D22" s="10">
+        <f>Iterative!B25</f>
+        <v>517.79453333333004</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="18">
+        <v>50</v>
+      </c>
+      <c r="C23" s="19">
+        <f>Distributive!B26</f>
+        <v>433.52784000000003</v>
+      </c>
+      <c r="D23" s="19">
+        <f>Iterative!B26</f>
+        <v>585.43052</v>
+      </c>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" low="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!C2:D2</xm:f>
+              <xm:sqref>E2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C3:D3</xm:f>
+              <xm:sqref>E3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C4:D4</xm:f>
+              <xm:sqref>E4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C5:D5</xm:f>
+              <xm:sqref>E5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C6:D6</xm:f>
+              <xm:sqref>E6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C7:D7</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C8:D8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C9:D9</xm:f>
+              <xm:sqref>E9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C10:D10</xm:f>
+              <xm:sqref>E10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C11:D11</xm:f>
+              <xm:sqref>E11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C12:D12</xm:f>
+              <xm:sqref>E12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C13:D13</xm:f>
+              <xm:sqref>E13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C14:D14</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C15:D15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C16:D16</xm:f>
+              <xm:sqref>E16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C17:D17</xm:f>
+              <xm:sqref>E17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C18:D18</xm:f>
+              <xm:sqref>E18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C19:D19</xm:f>
+              <xm:sqref>E19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C20:D20</xm:f>
+              <xm:sqref>E20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C21:D21</xm:f>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C22:D22</xm:f>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C23:D23</xm:f>
+              <xm:sqref>E23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickTop="1" thickBot="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:2" ht="16" thickTop="1" thickBot="1">
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4094,101 +10180,101 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>6.22</v>
+        <v>5.1340000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>24.382000000000001</v>
+        <v>21.648399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>47.005000000000003</v>
+        <v>41.7928</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>66.165999999999997</v>
+        <v>62.684533333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>88.347999999999999</v>
+        <v>83.391400000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25</v>
       </c>
       <c r="B8" s="2">
-        <v>110.4308</v>
+        <v>104.20456</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
       <c r="B9" s="2">
-        <v>131.68566666000001</v>
+        <v>125.077466666666</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>35</v>
       </c>
       <c r="B10" s="2">
-        <v>153.452857142857</v>
+        <v>145.20777142857099</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40</v>
       </c>
       <c r="B11" s="2">
-        <v>175.07624999999999</v>
+        <v>165.66495</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45</v>
       </c>
       <c r="B12" s="2">
-        <v>197.10933333333301</v>
+        <v>186.62217777777701</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>50</v>
       </c>
       <c r="B13" s="4">
-        <v>218.1592</v>
+        <v>207.53412</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" thickTop="1" thickBot="1">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="24"/>
     </row>
-    <row r="15" spans="1:2" ht="16" thickTop="1" thickBot="1">
+    <row r="15" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -4196,107 +10282,334 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
       <c r="B16" s="6">
-        <v>15.8</v>
+        <v>10.135999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>78.055999999999997</v>
+        <v>50.139600000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>160.34399999999999</v>
+        <v>102.2068</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>242.68266666666599</v>
+        <v>156.672</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>330.07350000000002</v>
+        <v>213.01339999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>417.3184</v>
+        <v>270.92432000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30</v>
       </c>
       <c r="B22" s="2">
-        <v>504.95400000000001</v>
+        <v>328.96493333333302</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>589.83057148571402</v>
+        <v>390.78320000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>680.673</v>
+        <v>454.10520000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45</v>
       </c>
       <c r="B25" s="2">
-        <v>774.45600000000002</v>
+        <v>517.79453333333004</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>50</v>
       </c>
       <c r="B26" s="4">
-        <v>879.28579999999999</v>
+        <v>585.43052</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickTop="1"/>
+    <row r="27" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0.75" bottom="0.8" header="0.3" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5.3659999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16.739999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33.986800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>57.778666666600003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>84.754000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>110.50936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>135.89133333333999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>166.90091428571401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2">
+        <v>199.56164999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2">
+        <v>225.13475555555499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>251.87332000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="24"/>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>13.028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38.919199999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>78.572400000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>118.62306666666601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>160.10290000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>202.05176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>246.36713333333299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <v>291.31377142857099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2">
+        <v>336.09415000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2">
+        <v>383.26377777777702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4">
+        <v>433.52784000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>